--- a/TKO.xlsx
+++ b/TKO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5667209-2274-454C-B70D-174FA66A6EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C355461D-9267-4596-81FD-B667A3C6A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$27:$R$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$J$28:$R$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$J$2:$R$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$J$13:$R$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$J$13:$R$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$J$2:$R$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$B$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$B$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$J$27:$R$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$J$28:$R$28</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Model!$J$2:$R$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1707,7 +1707,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1866,6 +1866,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1923,24 +1929,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -13227,18 +13215,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -13282,7 +13270,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13302,7 +13290,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13333,10 +13321,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -13380,7 +13368,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Total Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19103,7 +19091,7 @@
   <dimension ref="B2:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19172,7 +19160,7 @@
       </c>
       <c r="J3" s="38">
         <f t="shared" ref="J3:J8" si="0">I3/($C$7*1000000)</f>
-        <v>1.5132592412336299E-4</v>
+        <v>1.5309453274023894E-4</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>187</v>
@@ -19201,7 +19189,7 @@
       </c>
       <c r="J4" s="38">
         <f t="shared" si="0"/>
-        <v>5.7494431789269103E-5</v>
+        <v>5.816639297552291E-5</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>189</v>
@@ -19228,7 +19216,7 @@
       </c>
       <c r="J5" s="38">
         <f t="shared" si="0"/>
-        <v>1.3603754969672684E-4</v>
+        <v>1.3762747676313077E-4</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>191</v>
@@ -19259,7 +19247,7 @@
       </c>
       <c r="J6" s="38">
         <f t="shared" si="0"/>
-        <v>0.18116723695563833</v>
+        <v>0.18328461332873183</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>193</v>
@@ -19274,7 +19262,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <v>82.808019000000002</v>
+        <f>Model!S26</f>
+        <v>81.851388</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>169</v>
@@ -19290,7 +19279,7 @@
       </c>
       <c r="J7" s="38">
         <f t="shared" si="0"/>
-        <v>1.5132592412336299E-4</v>
+        <v>1.5309453274023894E-4</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>195</v>
@@ -19306,7 +19295,7 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>10507.50953091</v>
+        <v>10386.12262332</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>171</v>
@@ -19322,7 +19311,7 @@
       </c>
       <c r="J8" s="38">
         <f t="shared" si="0"/>
-        <v>3.78224239369861E-5</v>
+        <v>3.8264470237205997E-5</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>197</v>
@@ -19400,7 +19389,7 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>13298.56553091</v>
+        <v>13177.17862332</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>179</v>
@@ -19472,11 +19461,11 @@
       <c r="E17" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="132" t="s">
+      <c r="L17" s="134" t="s">
         <v>141</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="134"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -19486,9 +19475,9 @@
         <f>C14/C16</f>
         <v>551.695652173913</v>
       </c>
-      <c r="L18" s="135"/>
-      <c r="M18" s="136"/>
-      <c r="N18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="139"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -19498,9 +19487,9 @@
         <f>C15/C17</f>
         <v>2.9980995233399081</v>
       </c>
-      <c r="L19" s="135"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="139"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -19510,9 +19499,9 @@
         <f>Model!F13/Model!E13-1</f>
         <v>0.64779267424810505</v>
       </c>
-      <c r="L20" s="135"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="139"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -19522,9 +19511,9 @@
         <f>Model!G13/Model!F13-1</f>
         <v>0.1123188405797102</v>
       </c>
-      <c r="L21" s="135"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="139"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -19534,9 +19523,9 @@
         <f>Model!E17</f>
         <v>446.66300000000024</v>
       </c>
-      <c r="L22" s="135"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="139"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -19546,9 +19535,9 @@
         <f>Model!E18</f>
         <v>611.27900000000022</v>
       </c>
-      <c r="L23" s="135"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="139"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -19558,9 +19547,9 @@
         <f>Model!E29</f>
         <v>0.69277144399176582</v>
       </c>
-      <c r="L24" s="135"/>
-      <c r="M24" s="136"/>
-      <c r="N24" s="137"/>
+      <c r="L24" s="137"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="139"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -19570,9 +19559,9 @@
         <f>Model!E30</f>
         <v>-2.1031446570919411E-2</v>
       </c>
-      <c r="L25" s="135"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="139"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -19580,11 +19569,11 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>21.75531227297191</v>
-      </c>
-      <c r="L26" s="135"/>
-      <c r="M26" s="136"/>
-      <c r="N26" s="137"/>
+        <v>21.556733706409013</v>
+      </c>
+      <c r="L26" s="137"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="139"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -19597,9 +19586,9 @@
       <c r="E27" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="135"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="139"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -19612,9 +19601,9 @@
       <c r="E28" t="s">
         <v>203</v>
       </c>
-      <c r="L28" s="138"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="142"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -19702,10 +19691,10 @@
   <dimension ref="A1:U89"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19713,7 +19702,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="13"/>
-    <col min="17" max="17" width="11.42578125" style="151"/>
     <col min="19" max="19" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -19759,7 +19747,7 @@
       <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="151" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
       <c r="R2" t="s">
@@ -19805,13 +19793,13 @@
       <c r="P3" s="10">
         <v>266.75799999999998</v>
       </c>
-      <c r="Q3" s="152">
+      <c r="Q3" s="10">
         <v>168.1</v>
       </c>
-      <c r="R3" s="162">
+      <c r="R3" s="10">
         <v>214.46199999999999</v>
       </c>
-      <c r="S3" s="163">
+      <c r="S3" s="15">
         <v>250.58500000000001</v>
       </c>
     </row>
@@ -19845,13 +19833,13 @@
       <c r="P4" s="10">
         <v>51.863</v>
       </c>
-      <c r="Q4" s="152">
+      <c r="Q4" s="10">
         <v>52.3</v>
       </c>
-      <c r="R4" s="162">
+      <c r="R4" s="10">
         <v>35.277000000000001</v>
       </c>
-      <c r="S4" s="163">
+      <c r="S4" s="15">
         <v>69.152000000000001</v>
       </c>
     </row>
@@ -19885,13 +19873,13 @@
       <c r="P5" s="10">
         <v>63.780999999999999</v>
       </c>
-      <c r="Q5" s="152">
+      <c r="Q5" s="10">
         <v>48.3</v>
       </c>
-      <c r="R5" s="162">
+      <c r="R5" s="10">
         <v>48.603000000000002</v>
       </c>
-      <c r="S5" s="163">
+      <c r="S5" s="15">
         <v>61.633000000000003</v>
       </c>
     </row>
@@ -19925,13 +19913,13 @@
       <c r="P6" s="10">
         <v>15.118</v>
       </c>
-      <c r="Q6" s="152">
+      <c r="Q6" s="10">
         <v>14.1</v>
       </c>
-      <c r="R6" s="162">
+      <c r="R6" s="10">
         <v>14.648</v>
       </c>
-      <c r="S6" s="163">
+      <c r="S6" s="15">
         <v>12.988</v>
       </c>
     </row>
@@ -19979,11 +19967,11 @@
         <f t="shared" ref="P7" si="7">SUM(P3:P6)</f>
         <v>397.52</v>
       </c>
-      <c r="Q7" s="153">
+      <c r="Q7" s="11">
         <f t="shared" ref="Q7:U7" si="8">SUM(Q3:Q6)</f>
         <v>282.8</v>
       </c>
-      <c r="R7" s="153">
+      <c r="R7" s="11">
         <f t="shared" si="8"/>
         <v>312.99</v>
       </c>
@@ -19991,11 +19979,11 @@
         <f t="shared" si="8"/>
         <v>394.358</v>
       </c>
-      <c r="T7" s="153">
+      <c r="T7" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U7" s="153">
+      <c r="U7" s="11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -20018,13 +20006,13 @@
       <c r="P8" s="10">
         <v>37.264000000000003</v>
       </c>
-      <c r="Q8" s="152">
+      <c r="Q8" s="10">
         <v>212.2</v>
       </c>
-      <c r="R8" s="162">
+      <c r="R8" s="10">
         <v>221.107</v>
       </c>
-      <c r="S8" s="163">
+      <c r="S8" s="15">
         <v>260.67599999999999</v>
       </c>
     </row>
@@ -20046,13 +20034,13 @@
       <c r="P9" s="10">
         <v>5.3380000000000001</v>
       </c>
-      <c r="Q9" s="152">
+      <c r="Q9" s="10">
         <v>82.3</v>
       </c>
-      <c r="R9" s="162">
+      <c r="R9" s="10">
         <v>50.192</v>
       </c>
-      <c r="S9" s="163">
+      <c r="S9" s="15">
         <v>144.102</v>
       </c>
     </row>
@@ -20074,13 +20062,13 @@
       <c r="P10" s="10">
         <v>2.6059999999999999</v>
       </c>
-      <c r="Q10" s="152">
+      <c r="Q10" s="10">
         <v>15.4</v>
       </c>
-      <c r="R10" s="162">
+      <c r="R10" s="10">
         <v>13.815</v>
       </c>
-      <c r="S10" s="163">
+      <c r="S10" s="15">
         <v>24.75</v>
       </c>
     </row>
@@ -20102,13 +20090,13 @@
       <c r="P11" s="10">
         <v>6.33</v>
       </c>
-      <c r="Q11" s="152">
+      <c r="Q11" s="10">
         <v>21.3</v>
       </c>
-      <c r="R11" s="162">
+      <c r="R11" s="10">
         <v>31.606999999999999</v>
       </c>
-      <c r="S11" s="163">
+      <c r="S11" s="15">
         <v>27.274999999999999</v>
       </c>
     </row>
@@ -20156,23 +20144,23 @@
         <f t="shared" ref="P12" si="16">SUM(P8:P11)</f>
         <v>51.538000000000004</v>
       </c>
-      <c r="Q12" s="153">
+      <c r="Q12" s="11">
         <f t="shared" ref="Q12:U12" si="17">SUM(Q8:Q11)</f>
         <v>331.2</v>
       </c>
-      <c r="R12" s="153">
+      <c r="R12" s="11">
         <f t="shared" si="17"/>
         <v>316.721</v>
       </c>
-      <c r="S12" s="164">
+      <c r="S12" s="14">
         <f t="shared" si="17"/>
         <v>456.803</v>
       </c>
-      <c r="T12" s="153">
+      <c r="T12" s="11">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U12" s="153">
+      <c r="U12" s="11">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -20227,11 +20215,11 @@
         <f t="shared" si="19"/>
         <v>449.05799999999999</v>
       </c>
-      <c r="Q13" s="153">
+      <c r="Q13" s="11">
         <f>Q7+Q12</f>
         <v>614</v>
       </c>
-      <c r="R13" s="153">
+      <c r="R13" s="11">
         <f>R7+R12</f>
         <v>629.71100000000001</v>
       </c>
@@ -20284,7 +20272,7 @@
       <c r="P14" s="10">
         <v>130.31200000000001</v>
       </c>
-      <c r="Q14" s="152">
+      <c r="Q14" s="10">
         <v>212.3</v>
       </c>
       <c r="R14" s="10">
@@ -20332,10 +20320,10 @@
       <c r="P15" s="10">
         <v>193.21100000000001</v>
       </c>
-      <c r="Q15" s="152">
+      <c r="Q15" s="10">
         <v>236.1</v>
       </c>
-      <c r="R15" s="162">
+      <c r="R15" s="10">
         <v>531.88</v>
       </c>
       <c r="S15" s="15">
@@ -20380,10 +20368,10 @@
       <c r="P16" s="10">
         <v>31.698</v>
       </c>
-      <c r="Q16" s="152">
+      <c r="Q16" s="10">
         <v>102.7</v>
       </c>
-      <c r="R16" s="162">
+      <c r="R16" s="10">
         <v>107.161</v>
       </c>
       <c r="S16" s="15">
@@ -20417,51 +20405,51 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11">
-        <f>J13-SUM(J14:J16)</f>
+        <f t="shared" ref="J17:Q17" si="20">J13-SUM(J14:J16)</f>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f>K13-SUM(K14:K16)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>L13-SUM(L14:L16)</f>
+        <f t="shared" si="20"/>
         <v>169.63599999999997</v>
       </c>
       <c r="M17" s="11">
-        <f>M13-SUM(M14:M16)</f>
+        <f t="shared" si="20"/>
         <v>120.19999999999999</v>
       </c>
       <c r="N17" s="11">
-        <f>N13-SUM(N14:N16)</f>
+        <f t="shared" si="20"/>
         <v>146.08000000000004</v>
       </c>
       <c r="O17" s="11">
-        <f>O13-SUM(O14:O16)</f>
+        <f t="shared" si="20"/>
         <v>143.87</v>
       </c>
       <c r="P17" s="11">
-        <f>P13-SUM(P14:P16)</f>
+        <f t="shared" si="20"/>
         <v>93.836999999999989</v>
       </c>
-      <c r="Q17" s="153">
-        <f>Q13-SUM(Q14:Q16)</f>
+      <c r="Q17" s="11">
+        <f t="shared" si="20"/>
         <v>62.899999999999977</v>
       </c>
-      <c r="R17" s="153">
-        <f t="shared" ref="R17:U17" si="20">R13-SUM(R14:R16)</f>
+      <c r="R17" s="11">
+        <f t="shared" ref="R17:U17" si="21">R13-SUM(R14:R16)</f>
         <v>-210.34500000000003</v>
       </c>
       <c r="S17" s="14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>254.94800000000009</v>
       </c>
-      <c r="T17" s="153">
-        <f t="shared" si="20"/>
+      <c r="T17" s="11">
+        <f t="shared" si="21"/>
         <v>662.22</v>
       </c>
-      <c r="U17" s="153">
-        <f t="shared" si="20"/>
+      <c r="U17" s="11">
+        <f t="shared" si="21"/>
         <v>607.11</v>
       </c>
     </row>
@@ -20496,47 +20484,47 @@
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" ref="K18:S18" si="21">K17+K16</f>
+        <f t="shared" ref="K18:Q18" si="22">K17+K16</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>184.58299999999997</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>135.19999999999999</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>161.23200000000003</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>158.92000000000002</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>125.535</v>
       </c>
-      <c r="Q18" s="153">
-        <f t="shared" si="21"/>
+      <c r="Q18" s="11">
+        <f t="shared" si="22"/>
         <v>165.59999999999997</v>
       </c>
-      <c r="R18" s="153">
-        <f t="shared" ref="R18:U18" si="22">R17+R16</f>
+      <c r="R18" s="11">
+        <f t="shared" ref="R18:U18" si="23">R17+R16</f>
         <v>-103.18400000000003</v>
       </c>
       <c r="S18" s="14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>358.76700000000011</v>
       </c>
-      <c r="T18" s="153">
-        <f t="shared" si="22"/>
+      <c r="T18" s="11">
+        <f t="shared" si="23"/>
         <v>662.22</v>
       </c>
-      <c r="U18" s="153">
-        <f t="shared" si="22"/>
+      <c r="U18" s="11">
+        <f t="shared" si="23"/>
         <v>607.11</v>
       </c>
     </row>
@@ -20576,10 +20564,10 @@
       <c r="P19" s="10">
         <v>-60.636000000000003</v>
       </c>
-      <c r="Q19" s="152">
+      <c r="Q19" s="10">
         <v>-66.599999999999994</v>
       </c>
-      <c r="R19" s="162">
+      <c r="R19" s="10">
         <v>-64.465999999999994</v>
       </c>
       <c r="S19" s="15">
@@ -20618,10 +20606,10 @@
       <c r="P20" s="10">
         <v>-0.69599999999999995</v>
       </c>
-      <c r="Q20" s="152">
+      <c r="Q20" s="10">
         <v>1.4</v>
       </c>
-      <c r="R20" s="162">
+      <c r="R20" s="10">
         <v>-0.27100000000000002</v>
       </c>
       <c r="S20" s="15">
@@ -20653,51 +20641,51 @@
         <v>206.10800000000009</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" ref="J21:S21" si="23">J17+SUM(J19:J20)</f>
+        <f t="shared" ref="J21:Q21" si="24">J17+SUM(J19:J20)</f>
         <v>0</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>134.71699999999996</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>70.5</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>91.843000000000046</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>85.44</v>
       </c>
       <c r="P21" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>32.504999999999988</v>
       </c>
-      <c r="Q21" s="153">
-        <f t="shared" si="23"/>
+      <c r="Q21" s="11">
+        <f t="shared" si="24"/>
         <v>-2.3000000000000114</v>
       </c>
-      <c r="R21" s="153">
-        <f t="shared" ref="R21" si="24">R17+SUM(R19:R20)</f>
+      <c r="R21" s="11">
+        <f t="shared" ref="R21" si="25">R17+SUM(R19:R20)</f>
         <v>-275.08199999999999</v>
       </c>
       <c r="S21" s="14">
-        <f t="shared" ref="S21" si="25">S17+SUM(S19:S20)</f>
+        <f t="shared" ref="S21" si="26">S17+SUM(S19:S20)</f>
         <v>189.96500000000009</v>
       </c>
-      <c r="T21" s="153">
-        <f t="shared" ref="T21" si="26">T17+SUM(T19:T20)</f>
+      <c r="T21" s="11">
+        <f t="shared" ref="T21" si="27">T17+SUM(T19:T20)</f>
         <v>662.22</v>
       </c>
-      <c r="U21" s="153">
-        <f t="shared" ref="U21" si="27">U17+SUM(U19:U20)</f>
+      <c r="U21" s="11">
+        <f t="shared" ref="U21" si="28">U17+SUM(U19:U20)</f>
         <v>607.11</v>
       </c>
     </row>
@@ -20737,10 +20725,10 @@
       <c r="P22" s="10">
         <v>11.156000000000001</v>
       </c>
-      <c r="Q22" s="152">
+      <c r="Q22" s="10">
         <v>13.8</v>
       </c>
-      <c r="R22" s="162">
+      <c r="R22" s="10">
         <v>-25.521999999999998</v>
       </c>
       <c r="S22" s="15">
@@ -20780,10 +20768,10 @@
       <c r="P23" s="10">
         <v>-0.67100000000000004</v>
       </c>
-      <c r="Q23" s="152">
+      <c r="Q23" s="10">
         <v>0</v>
       </c>
-      <c r="R23" s="162">
+      <c r="R23" s="10">
         <v>-0.05</v>
       </c>
       <c r="S23" s="15">
@@ -20826,11 +20814,11 @@
         <f>-22.471+66.377</f>
         <v>43.905999999999992</v>
       </c>
-      <c r="Q24" s="152">
+      <c r="Q24" s="10">
         <f>-10.8+8</f>
         <v>-2.8000000000000007</v>
       </c>
-      <c r="R24" s="162">
+      <c r="R24" s="10">
         <v>-145.66999999999999</v>
       </c>
       <c r="S24" s="15">
@@ -20862,51 +20850,51 @@
         <v>233.40101928000001</v>
       </c>
       <c r="J25" s="11">
-        <f t="shared" ref="J25:U25" si="28">J21-SUM(J22:J24)</f>
+        <f t="shared" ref="J25:U25" si="29">J21-SUM(J22:J24)</f>
         <v>0</v>
       </c>
       <c r="K25" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N25" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O25" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>81.414000000000001</v>
       </c>
       <c r="P25" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>-21.886000000000003</v>
       </c>
-      <c r="Q25" s="153">
-        <f t="shared" si="28"/>
+      <c r="Q25" s="11">
+        <f t="shared" si="29"/>
         <v>-13.300000000000011</v>
       </c>
-      <c r="R25" s="153">
-        <f t="shared" si="28"/>
+      <c r="R25" s="11">
+        <f t="shared" si="29"/>
         <v>-103.84</v>
       </c>
       <c r="S25" s="14">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>59.107000000000085</v>
       </c>
-      <c r="T25" s="153">
-        <f t="shared" si="28"/>
+      <c r="T25" s="11">
+        <f t="shared" si="29"/>
         <v>662.22</v>
       </c>
-      <c r="U25" s="153">
-        <f t="shared" si="28"/>
+      <c r="U25" s="11">
+        <f t="shared" si="29"/>
         <v>607.11</v>
       </c>
     </row>
@@ -20934,7 +20922,7 @@
       <c r="P26" s="10">
         <v>83.161405999999999</v>
       </c>
-      <c r="Q26" s="152">
+      <c r="Q26" s="10">
         <v>82.735035999999994</v>
       </c>
       <c r="R26" s="10">
@@ -20972,24 +20960,24 @@
         <f>P25/P26</f>
         <v>-0.26317496363637721</v>
       </c>
-      <c r="Q27" s="154">
+      <c r="Q27" s="2">
         <f>Q25/Q26</f>
         <v>-0.16075414531758966</v>
       </c>
-      <c r="R27" s="154">
+      <c r="R27" s="2">
         <f>R25/R26</f>
         <v>-1.2609339941126139</v>
       </c>
       <c r="S27" s="35">
-        <f t="shared" ref="R27:U27" si="29">S25/S26</f>
+        <f t="shared" ref="S27:U27" si="30">S25/S26</f>
         <v>0.72212581172111689</v>
       </c>
-      <c r="T27" s="154" t="e">
-        <f t="shared" si="29"/>
+      <c r="T27" s="2" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="154" t="e">
-        <f t="shared" si="29"/>
+      <c r="U27" s="2" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21013,17 +21001,17 @@
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
       <c r="P28" s="47"/>
-      <c r="Q28" s="155"/>
+      <c r="Q28" s="132"/>
       <c r="R28" s="129">
         <v>0.45</v>
       </c>
-      <c r="S28" s="160">
+      <c r="S28" s="133">
         <v>0.71</v>
       </c>
-      <c r="T28" s="161">
+      <c r="T28">
         <v>0.5</v>
       </c>
-      <c r="U28" s="161">
+      <c r="U28">
         <v>0.23</v>
       </c>
     </row>
@@ -21046,51 +21034,51 @@
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="J29" s="3" t="e">
-        <f>1-J14/J13</f>
+        <f t="shared" ref="J29:Q29" si="31">1-J14/J13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="3" t="e">
-        <f>1-K14/K13</f>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L29" s="3">
-        <f>1-L14/L13</f>
+        <f t="shared" si="31"/>
         <v>0.7076040728032662</v>
       </c>
       <c r="M29" s="3">
-        <f>1-M14/M13</f>
+        <f t="shared" si="31"/>
         <v>0.69782848730217151</v>
       </c>
       <c r="N29" s="3">
-        <f>1-N14/N13</f>
+        <f t="shared" si="31"/>
         <v>0.70934698268835783</v>
       </c>
       <c r="O29" s="3">
-        <f>1-O14/O13</f>
+        <f t="shared" si="31"/>
         <v>0.72872519946917436</v>
       </c>
       <c r="P29" s="3">
-        <f>1-P14/P13</f>
+        <f t="shared" si="31"/>
         <v>0.70981031403515793</v>
       </c>
       <c r="Q29" s="39">
-        <f>1-Q14/Q13</f>
+        <f t="shared" si="31"/>
         <v>0.6542345276872964</v>
       </c>
       <c r="R29" s="39">
-        <f t="shared" ref="R29:U29" si="30">1-R14/R13</f>
+        <f t="shared" ref="R29:U29" si="32">1-R14/R13</f>
         <v>0.6807821365674096</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.69477924857929352</v>
       </c>
       <c r="T29" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="U29" s="39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -21113,51 +21101,51 @@
       <c r="F30" s="45"/>
       <c r="G30" s="45"/>
       <c r="J30" s="4" t="e">
-        <f>J25/J13</f>
+        <f t="shared" ref="J30:Q30" si="33">J25/J13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="4" t="e">
-        <f>K25/K13</f>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L30" s="4">
-        <f>L25/L13</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M30" s="4">
-        <f>M25/M13</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N30" s="4">
-        <f>N25/N13</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f>O25/O13</f>
+        <f t="shared" si="33"/>
         <v>0.26676933663187902</v>
       </c>
       <c r="P30" s="4">
-        <f>P25/P13</f>
+        <f t="shared" si="33"/>
         <v>-4.8737579555424917E-2</v>
       </c>
-      <c r="Q30" s="156">
-        <f>Q25/Q13</f>
+      <c r="Q30" s="4">
+        <f t="shared" si="33"/>
         <v>-2.1661237785016305E-2</v>
       </c>
-      <c r="R30" s="156">
-        <f t="shared" ref="R30:U30" si="31">R25/R13</f>
+      <c r="R30" s="4">
+        <f t="shared" ref="R30:U30" si="34">R25/R13</f>
         <v>-0.16490104190652538</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.9442796368724691E-2</v>
       </c>
-      <c r="T30" s="156">
-        <f t="shared" si="31"/>
+      <c r="T30" s="4">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="U30" s="156">
-        <f t="shared" si="31"/>
+      <c r="U30" s="4">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
     </row>
@@ -21198,24 +21186,24 @@
         <f>P13/L13-1</f>
         <v>0.31804906970669133</v>
       </c>
-      <c r="Q31" s="156">
+      <c r="Q31" s="4">
         <f>Q13/M13-1</f>
         <v>1.2598454177401548</v>
       </c>
-      <c r="R31" s="156">
-        <f t="shared" ref="R31:U31" si="32">R13/N13-1</f>
+      <c r="R31" s="4">
+        <f t="shared" ref="R31:U31" si="35">R13/N13-1</f>
         <v>1.052981449483259</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1.7890001146845358</v>
       </c>
-      <c r="T31" s="156">
-        <f t="shared" si="32"/>
+      <c r="T31" s="4">
+        <f t="shared" si="35"/>
         <v>0.47468701147735937</v>
       </c>
-      <c r="U31" s="156">
-        <f t="shared" si="32"/>
+      <c r="U31" s="4">
+        <f t="shared" si="35"/>
         <v>-1.1221498371335459E-2</v>
       </c>
     </row>
@@ -21238,51 +21226,51 @@
       <c r="F32" s="121"/>
       <c r="G32" s="121"/>
       <c r="J32" s="4" t="e">
-        <f>J15/J13</f>
+        <f t="shared" ref="J32:Q32" si="36">J15/J13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="4" t="e">
-        <f>K15/K13</f>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L32" s="4">
-        <f>L15/L13</f>
+        <f t="shared" si="36"/>
         <v>0.16582672681751343</v>
       </c>
       <c r="M32" s="4">
-        <f>M15/M13</f>
+        <f t="shared" si="36"/>
         <v>0.20022083179977918</v>
       </c>
       <c r="N32" s="4">
-        <f>N15/N13</f>
+        <f t="shared" si="36"/>
         <v>0.18369901868092456</v>
       </c>
       <c r="O32" s="4">
-        <f>O15/O13</f>
+        <f t="shared" si="36"/>
         <v>0.20799187378147679</v>
       </c>
       <c r="P32" s="4">
-        <f>P15/P13</f>
+        <f t="shared" si="36"/>
         <v>0.43025845213758585</v>
       </c>
-      <c r="Q32" s="156">
-        <f>Q15/Q13</f>
+      <c r="Q32" s="4">
+        <f t="shared" si="36"/>
         <v>0.38452768729641695</v>
       </c>
-      <c r="R32" s="156">
-        <f t="shared" ref="R32:U32" si="33">R15/R13</f>
+      <c r="R32" s="4">
+        <f t="shared" ref="R32:U32" si="37">R15/R13</f>
         <v>0.84464143075156695</v>
       </c>
       <c r="S32" s="7">
         <f>S15/S13</f>
         <v>0.27327614869572264</v>
       </c>
-      <c r="T32" s="156">
-        <f t="shared" si="33"/>
+      <c r="T32" s="4">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="U32" s="156">
-        <f t="shared" si="33"/>
+      <c r="U32" s="4">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -21305,51 +21293,51 @@
       <c r="F33" s="121"/>
       <c r="G33" s="121"/>
       <c r="J33" s="4" t="e">
-        <f>J16/J13</f>
+        <f t="shared" ref="J33:Q33" si="38">J16/J13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="4" t="e">
-        <f>K16/K13</f>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L33" s="4">
-        <f>L16/L13</f>
+        <f t="shared" si="38"/>
         <v>4.3871569919489053E-2</v>
       </c>
       <c r="M33" s="4">
-        <f>M16/M13</f>
+        <f t="shared" si="38"/>
         <v>5.5207949944792049E-2</v>
       </c>
       <c r="N33" s="4">
-        <f>N16/N13</f>
+        <f t="shared" si="38"/>
         <v>4.9398493789326113E-2</v>
       </c>
       <c r="O33" s="4">
-        <f>O16/O13</f>
+        <f t="shared" si="38"/>
         <v>4.9314350312105772E-2</v>
       </c>
       <c r="P33" s="4">
-        <f>P16/P13</f>
+        <f t="shared" si="38"/>
         <v>7.0587763718717847E-2</v>
       </c>
-      <c r="Q33" s="156">
-        <f>Q16/Q13</f>
+      <c r="Q33" s="4">
+        <f t="shared" si="38"/>
         <v>0.16726384364820848</v>
       </c>
-      <c r="R33" s="156">
-        <f t="shared" ref="R33:U33" si="34">R16/R13</f>
+      <c r="R33" s="4">
+        <f t="shared" ref="R33:U33" si="39">R16/R13</f>
         <v>0.17017488975101278</v>
       </c>
       <c r="S33" s="7">
         <f>S16/S13</f>
         <v>0.12197339868720489</v>
       </c>
-      <c r="T33" s="156">
-        <f t="shared" si="34"/>
+      <c r="T33" s="4">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U33" s="156">
-        <f t="shared" si="34"/>
+      <c r="U33" s="4">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -21369,51 +21357,51 @@
       <c r="F34" s="121"/>
       <c r="G34" s="121"/>
       <c r="J34" s="4" t="e">
-        <f>J16/J13</f>
+        <f t="shared" ref="J34:Q34" si="40">J16/J13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="4" t="e">
-        <f>K16/K13</f>
+        <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L34" s="4">
-        <f>L16/L13</f>
+        <f t="shared" si="40"/>
         <v>4.3871569919489053E-2</v>
       </c>
       <c r="M34" s="4">
-        <f>M16/M13</f>
+        <f t="shared" si="40"/>
         <v>5.5207949944792049E-2</v>
       </c>
       <c r="N34" s="4">
-        <f>N16/N13</f>
+        <f t="shared" si="40"/>
         <v>4.9398493789326113E-2</v>
       </c>
       <c r="O34" s="4">
-        <f>O16/O13</f>
+        <f t="shared" si="40"/>
         <v>4.9314350312105772E-2</v>
       </c>
       <c r="P34" s="4">
-        <f>P16/P13</f>
+        <f t="shared" si="40"/>
         <v>7.0587763718717847E-2</v>
       </c>
-      <c r="Q34" s="156">
-        <f>Q16/Q13</f>
+      <c r="Q34" s="4">
+        <f t="shared" si="40"/>
         <v>0.16726384364820848</v>
       </c>
-      <c r="R34" s="156">
-        <f t="shared" ref="R34:U34" si="35">R16/R13</f>
+      <c r="R34" s="4">
+        <f t="shared" ref="R34:U34" si="41">R16/R13</f>
         <v>0.17017488975101278</v>
       </c>
       <c r="S34" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.12197339868720489</v>
       </c>
-      <c r="T34" s="156">
-        <f t="shared" si="35"/>
+      <c r="T34" s="4">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="U34" s="156">
-        <f t="shared" si="35"/>
+      <c r="U34" s="4">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -21448,24 +21436,24 @@
         <f>P7/L7-1</f>
         <v>0.16677771287852328</v>
       </c>
-      <c r="Q35" s="156">
+      <c r="Q35" s="4">
         <f>Q7/M7-1</f>
         <v>4.085388295914627E-2</v>
       </c>
-      <c r="R35" s="156">
-        <f t="shared" ref="R35:U35" si="36">R7/N7-1</f>
+      <c r="R35" s="4">
+        <f t="shared" ref="R35:U35" si="42">R7/N7-1</f>
         <v>2.0408828611482299E-2</v>
       </c>
       <c r="S35" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.29219325982600708</v>
       </c>
-      <c r="T35" s="156">
-        <f t="shared" si="36"/>
+      <c r="T35" s="4">
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
-      <c r="U35" s="156">
-        <f t="shared" si="36"/>
+      <c r="U35" s="4">
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
     </row>
@@ -21488,7 +21476,7 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4" t="e">
-        <f t="shared" ref="N36:R36" si="37">N25/J25-1</f>
+        <f t="shared" ref="N36:Q36" si="43">N25/J25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="4" t="e">
@@ -21499,24 +21487,24 @@
         <f>P25/L25-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q36" s="156" t="e">
-        <f t="shared" si="37"/>
+      <c r="Q36" s="4" t="e">
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R36" s="156" t="e">
-        <f t="shared" ref="R36" si="38">R25/N25-1</f>
+      <c r="R36" s="4" t="e">
+        <f t="shared" ref="R36" si="44">R25/N25-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" ref="S36" si="39">S25/O25-1</f>
+        <f t="shared" ref="S36" si="45">S25/O25-1</f>
         <v>-0.27399464465570933</v>
       </c>
-      <c r="T36" s="156">
-        <f t="shared" ref="T36" si="40">T25/P25-1</f>
+      <c r="T36" s="4">
+        <f t="shared" ref="T36" si="46">T25/P25-1</f>
         <v>-31.257698985652926</v>
       </c>
-      <c r="U36" s="156">
-        <f t="shared" ref="U36" si="41">U25/Q25-1</f>
+      <c r="U36" s="4">
+        <f t="shared" ref="U36" si="47">U25/Q25-1</f>
         <v>-46.64736842105259</v>
       </c>
     </row>
@@ -21541,36 +21529,36 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="156">
-        <f t="shared" ref="M37:R37" si="42">-M19/M13</f>
+      <c r="M37" s="4">
+        <f t="shared" ref="M37:R37" si="48">-M19/M13</f>
         <v>0.17960986382039013</v>
       </c>
-      <c r="N37" s="156">
-        <f t="shared" si="42"/>
+      <c r="N37" s="4">
+        <f t="shared" si="48"/>
         <v>0.17575066018974342</v>
       </c>
-      <c r="O37" s="156">
-        <f t="shared" si="42"/>
+      <c r="O37" s="4">
+        <f t="shared" si="48"/>
         <v>0.18970460540327999</v>
       </c>
-      <c r="P37" s="156">
-        <f t="shared" si="42"/>
+      <c r="P37" s="4">
+        <f t="shared" si="48"/>
         <v>0.13502932806007242</v>
       </c>
-      <c r="Q37" s="156">
-        <f t="shared" si="42"/>
+      <c r="Q37" s="4">
+        <f t="shared" si="48"/>
         <v>0.10846905537459282</v>
       </c>
-      <c r="R37" s="156">
-        <f t="shared" si="42"/>
+      <c r="R37" s="4">
+        <f t="shared" si="48"/>
         <v>0.10237394614354837</v>
       </c>
       <c r="S37" s="7">
         <f>-S19/S13</f>
         <v>7.7256829201525906E-2</v>
       </c>
-      <c r="T37" s="156"/>
-      <c r="U37" s="156"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -21601,47 +21589,47 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="130" t="e">
-        <f t="shared" ref="K38:O38" si="43">-K19/K17</f>
+        <f t="shared" ref="K38:O38" si="49">-K19/K17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L38" s="130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.20820462637647674</v>
       </c>
       <c r="M38" s="130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.40599001663893514</v>
       </c>
       <c r="N38" s="130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.3690306681270536</v>
       </c>
       <c r="O38" s="130">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.40241189963161189</v>
       </c>
       <c r="P38" s="130">
         <f>-P19/P17</f>
         <v>0.64618434093161559</v>
       </c>
-      <c r="Q38" s="157">
+      <c r="Q38" s="130">
         <f>-Q19/Q17</f>
         <v>1.0588235294117649</v>
       </c>
-      <c r="R38" s="157">
-        <f t="shared" ref="R38:U38" si="44">-R19/R17</f>
+      <c r="R38" s="130">
+        <f t="shared" ref="R38:U38" si="50">-R19/R17</f>
         <v>-0.30647745370700508</v>
       </c>
       <c r="S38" s="131">
         <f>-S19/S17</f>
         <v>0.25792710670411212</v>
       </c>
-      <c r="T38" s="157">
-        <f t="shared" si="44"/>
+      <c r="T38" s="130">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="U38" s="157">
-        <f t="shared" si="44"/>
+      <c r="U38" s="130">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -21662,51 +21650,51 @@
         <v>-2791.056</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" ref="J41:P41" si="45">J42-J56-J57-J58-J62-J63-J64</f>
+        <f t="shared" ref="J41:P41" si="51">J42-J56-J57-J58-J62-J63-J64</f>
         <v>0</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M41" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>-2602.8110000000001</v>
       </c>
       <c r="N41" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O41" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>-2833.7080000000001</v>
       </c>
-      <c r="Q41" s="153">
+      <c r="Q41" s="11">
         <f>Q42-Q56-Q57-Q58-Q62-Q63-Q64</f>
         <v>-2791.056</v>
       </c>
-      <c r="R41" s="153">
-        <f t="shared" ref="R41:U41" si="46">R42-R56-R57-R58-R62-R63-R64</f>
+      <c r="R41" s="11">
+        <f t="shared" ref="R41:U41" si="52">R42-R56-R57-R58-R62-R63-R64</f>
         <v>-2782.9369999999999</v>
       </c>
       <c r="S41" s="14">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>-2719.2599999999998</v>
       </c>
-      <c r="T41" s="153">
-        <f t="shared" si="46"/>
+      <c r="T41" s="11">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="U41" s="153">
-        <f t="shared" si="46"/>
+      <c r="U41" s="11">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -21733,18 +21721,18 @@
       <c r="P42" s="10">
         <v>188.59200000000001</v>
       </c>
-      <c r="Q42" s="152">
+      <c r="Q42" s="10">
         <f>E42</f>
         <v>235.839</v>
       </c>
-      <c r="R42" s="152">
+      <c r="R42" s="10">
         <v>245.81200000000001</v>
       </c>
       <c r="S42" s="15">
         <v>277.53199999999998</v>
       </c>
-      <c r="T42" s="152"/>
-      <c r="U42" s="152"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
@@ -21761,7 +21749,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10">
-        <f t="shared" ref="M43:M66" si="47">D43</f>
+        <f t="shared" ref="M43:M66" si="53">D43</f>
         <v>45.448</v>
       </c>
       <c r="N43" s="10"/>
@@ -21769,18 +21757,18 @@
       <c r="P43" s="10">
         <v>195.773</v>
       </c>
-      <c r="Q43" s="152">
-        <f t="shared" ref="Q43:Q44" si="48">E43</f>
+      <c r="Q43" s="10">
+        <f t="shared" ref="Q43:Q44" si="54">E43</f>
         <v>135.43600000000001</v>
       </c>
-      <c r="R43" s="152">
+      <c r="R43" s="10">
         <v>171.55500000000001</v>
       </c>
       <c r="S43" s="15">
         <v>294.71499999999997</v>
       </c>
-      <c r="T43" s="152"/>
-      <c r="U43" s="152"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
@@ -21797,7 +21785,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>42.277999999999999</v>
       </c>
       <c r="N44" s="10"/>
@@ -21805,18 +21793,18 @@
       <c r="P44" s="10">
         <v>116.611</v>
       </c>
-      <c r="Q44" s="152">
-        <f t="shared" si="48"/>
+      <c r="Q44" s="10">
+        <f t="shared" si="54"/>
         <v>121.155</v>
       </c>
-      <c r="R44" s="152">
+      <c r="R44" s="10">
         <v>164.393</v>
       </c>
       <c r="S44" s="15">
         <v>176.91900000000001</v>
       </c>
-      <c r="T44" s="152"/>
-      <c r="U44" s="152"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
     </row>
     <row r="45" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
@@ -21835,51 +21823,51 @@
         <v>492.42999999999995</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" ref="J45:Q45" si="49">SUM(J42:J44)</f>
+        <f t="shared" ref="J45:Q45" si="55">SUM(J42:J44)</f>
         <v>0</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>268.3</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P45" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>500.976</v>
       </c>
-      <c r="Q45" s="153">
-        <f t="shared" si="49"/>
+      <c r="Q45" s="11">
+        <f t="shared" si="55"/>
         <v>492.42999999999995</v>
       </c>
-      <c r="R45" s="153">
-        <f t="shared" ref="R45" si="50">SUM(R42:R44)</f>
+      <c r="R45" s="11">
+        <f t="shared" ref="R45" si="56">SUM(R42:R44)</f>
         <v>581.76</v>
       </c>
       <c r="S45" s="14">
-        <f t="shared" ref="S45" si="51">SUM(S42:S44)</f>
+        <f t="shared" ref="S45" si="57">SUM(S42:S44)</f>
         <v>749.16599999999994</v>
       </c>
-      <c r="T45" s="153">
-        <f t="shared" ref="T45" si="52">SUM(T42:T44)</f>
+      <c r="T45" s="11">
+        <f t="shared" ref="T45" si="58">SUM(T42:T44)</f>
         <v>0</v>
       </c>
-      <c r="U45" s="153">
-        <f t="shared" ref="U45" si="53">SUM(U42:U44)</f>
+      <c r="U45" s="11">
+        <f t="shared" ref="U45" si="59">SUM(U42:U44)</f>
         <v>0</v>
       </c>
     </row>
@@ -21898,7 +21886,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>175.048</v>
       </c>
       <c r="N46" s="10"/>
@@ -21906,18 +21894,18 @@
       <c r="P46" s="10">
         <v>568.09</v>
       </c>
-      <c r="Q46" s="152">
-        <f t="shared" ref="Q46:Q52" si="54">E46</f>
+      <c r="Q46" s="10">
+        <f t="shared" ref="Q46:Q52" si="60">E46</f>
         <v>608.41600000000005</v>
       </c>
-      <c r="R46" s="152">
+      <c r="R46" s="10">
         <v>611.75599999999997</v>
       </c>
       <c r="S46" s="15">
         <v>548.10500000000002</v>
       </c>
-      <c r="T46" s="152"/>
-      <c r="U46" s="152"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -21934,7 +21922,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>475.76499999999999</v>
       </c>
       <c r="N47" s="10"/>
@@ -21942,18 +21930,18 @@
       <c r="P47" s="10">
         <v>3679.8679999999999</v>
       </c>
-      <c r="Q47" s="152">
-        <f t="shared" si="54"/>
+      <c r="Q47" s="10">
+        <f t="shared" si="60"/>
         <v>3563.663</v>
       </c>
-      <c r="R47" s="152">
+      <c r="R47" s="10">
         <v>3483.0210000000002</v>
       </c>
       <c r="S47" s="15">
         <v>3401.8910000000001</v>
       </c>
-      <c r="T47" s="152"/>
-      <c r="U47" s="152"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -21970,7 +21958,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N48" s="10"/>
@@ -21978,18 +21966,18 @@
       <c r="P48" s="10">
         <v>236.268</v>
       </c>
-      <c r="Q48" s="152">
-        <f t="shared" si="54"/>
+      <c r="Q48" s="10">
+        <f t="shared" si="60"/>
         <v>255.709</v>
       </c>
-      <c r="R48" s="152">
+      <c r="R48" s="10">
         <v>259.89</v>
       </c>
       <c r="S48" s="15">
         <v>236.26599999999999</v>
       </c>
-      <c r="T48" s="152"/>
-      <c r="U48" s="152"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
@@ -22006,7 +21994,7 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>23.276</v>
       </c>
       <c r="N49" s="10"/>
@@ -22014,18 +22002,18 @@
       <c r="P49" s="10">
         <v>35.234999999999999</v>
       </c>
-      <c r="Q49" s="152">
-        <f t="shared" si="54"/>
+      <c r="Q49" s="10">
+        <f t="shared" si="60"/>
         <v>35.508000000000003</v>
       </c>
-      <c r="R49" s="152">
+      <c r="R49" s="10">
         <v>36.375999999999998</v>
       </c>
       <c r="S49" s="15">
         <v>34.53</v>
       </c>
-      <c r="T49" s="152"/>
-      <c r="U49" s="152"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
     </row>
     <row r="50" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -22042,7 +22030,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2602.6390000000001</v>
       </c>
       <c r="N50" s="10"/>
@@ -22050,18 +22038,18 @@
       <c r="P50" s="10">
         <v>7644.0529999999999</v>
       </c>
-      <c r="Q50" s="152">
-        <f t="shared" si="54"/>
+      <c r="Q50" s="10">
+        <f t="shared" si="60"/>
         <v>7666.4849999999997</v>
       </c>
-      <c r="R50" s="152">
+      <c r="R50" s="10">
         <v>7666.1480000000001</v>
       </c>
       <c r="S50" s="15">
         <v>7665.28</v>
       </c>
-      <c r="T50" s="152"/>
-      <c r="U50" s="152"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
     </row>
     <row r="51" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
@@ -22078,7 +22066,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>5.4160000000000004</v>
       </c>
       <c r="N51" s="10"/>
@@ -22086,18 +22074,18 @@
       <c r="P51" s="10">
         <v>17.113</v>
       </c>
-      <c r="Q51" s="152">
-        <f t="shared" si="54"/>
+      <c r="Q51" s="10">
+        <f t="shared" si="60"/>
         <v>16.391999999999999</v>
       </c>
-      <c r="R51" s="152">
+      <c r="R51" s="10">
         <v>15.993</v>
       </c>
       <c r="S51" s="15">
         <v>15.956</v>
       </c>
-      <c r="T51" s="152"/>
-      <c r="U51" s="152"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
     </row>
     <row r="52" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
@@ -22114,7 +22102,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>30.286000000000001</v>
       </c>
       <c r="N52" s="10"/>
@@ -22122,18 +22110,18 @@
       <c r="P52" s="10">
         <v>54.85</v>
       </c>
-      <c r="Q52" s="152">
-        <f t="shared" si="54"/>
+      <c r="Q52" s="10">
+        <f t="shared" si="60"/>
         <v>52.136000000000003</v>
       </c>
-      <c r="R52" s="152">
+      <c r="R52" s="10">
         <v>67.322000000000003</v>
       </c>
       <c r="S52" s="15">
         <v>68.617999999999995</v>
       </c>
-      <c r="T52" s="152"/>
-      <c r="U52" s="152"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
@@ -22152,51 +22140,51 @@
         <v>12690.739</v>
       </c>
       <c r="J53" s="11">
-        <f t="shared" ref="J53:Q53" si="55">SUM(J45:J52)</f>
+        <f t="shared" ref="J53:Q53" si="61">SUM(J45:J52)</f>
         <v>0</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>3580.7300000000005</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O53" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P53" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>12736.453</v>
       </c>
-      <c r="Q53" s="153">
-        <f t="shared" si="55"/>
+      <c r="Q53" s="11">
+        <f t="shared" si="61"/>
         <v>12690.739</v>
       </c>
-      <c r="R53" s="153">
-        <f t="shared" ref="R53" si="56">SUM(R45:R52)</f>
+      <c r="R53" s="11">
+        <f t="shared" ref="R53" si="62">SUM(R45:R52)</f>
         <v>12722.266000000001</v>
       </c>
       <c r="S53" s="14">
-        <f t="shared" ref="S53" si="57">SUM(S45:S52)</f>
+        <f t="shared" ref="S53" si="63">SUM(S45:S52)</f>
         <v>12719.812</v>
       </c>
-      <c r="T53" s="153">
-        <f t="shared" ref="T53" si="58">SUM(T45:T52)</f>
+      <c r="T53" s="11">
+        <f t="shared" ref="T53" si="64">SUM(T45:T52)</f>
         <v>0</v>
       </c>
-      <c r="U53" s="153">
-        <f t="shared" ref="U53" si="59">SUM(U45:U52)</f>
+      <c r="U53" s="11">
+        <f t="shared" ref="U53" si="65">SUM(U45:U52)</f>
         <v>0</v>
       </c>
     </row>
@@ -22215,7 +22203,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>16.841999999999999</v>
       </c>
       <c r="N54" s="10"/>
@@ -22223,18 +22211,18 @@
       <c r="P54" s="10">
         <v>20.898</v>
       </c>
-      <c r="Q54" s="152">
-        <f t="shared" ref="Q54:Q60" si="60">E54</f>
+      <c r="Q54" s="10">
+        <f t="shared" ref="Q54:Q60" si="66">E54</f>
         <v>42.04</v>
       </c>
-      <c r="R54" s="152">
+      <c r="R54" s="10">
         <v>22.587</v>
       </c>
       <c r="S54" s="15">
         <v>31.879000000000001</v>
       </c>
-      <c r="T54" s="152"/>
-      <c r="U54" s="152"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -22251,7 +22239,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>108.18899999999999</v>
       </c>
       <c r="N55" s="10"/>
@@ -22259,18 +22247,18 @@
       <c r="P55" s="10">
         <v>244.71600000000001</v>
       </c>
-      <c r="Q55" s="152">
-        <f t="shared" si="60"/>
+      <c r="Q55" s="10">
+        <f t="shared" si="66"/>
         <v>267.363</v>
       </c>
-      <c r="R55" s="152">
+      <c r="R55" s="10">
         <v>405.67200000000003</v>
       </c>
       <c r="S55" s="15">
         <v>571.14099999999996</v>
       </c>
-      <c r="T55" s="152"/>
-      <c r="U55" s="152"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
@@ -22287,7 +22275,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>22.683</v>
       </c>
       <c r="N56" s="10"/>
@@ -22295,18 +22283,18 @@
       <c r="P56" s="10">
         <v>26.65</v>
       </c>
-      <c r="Q56" s="152">
-        <f t="shared" si="60"/>
+      <c r="Q56" s="10">
+        <f t="shared" si="66"/>
         <v>22.367000000000001</v>
       </c>
-      <c r="R56" s="152">
+      <c r="R56" s="10">
         <v>22.321000000000002</v>
       </c>
       <c r="S56" s="15">
         <v>22.247</v>
       </c>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
@@ -22323,7 +22311,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N57" s="10"/>
@@ -22331,18 +22319,18 @@
       <c r="P57" s="10">
         <v>6.444</v>
       </c>
-      <c r="Q57" s="152">
-        <f t="shared" si="60"/>
+      <c r="Q57" s="10">
+        <f t="shared" si="66"/>
         <v>8.1349999999999998</v>
       </c>
-      <c r="R57" s="152">
+      <c r="R57" s="10">
         <v>10.952999999999999</v>
       </c>
       <c r="S57" s="15">
         <v>10.308</v>
       </c>
-      <c r="T57" s="152"/>
-      <c r="U57" s="152"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -22359,7 +22347,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>1.7929999999999999</v>
       </c>
       <c r="N58" s="10"/>
@@ -22367,18 +22355,18 @@
       <c r="P58" s="10">
         <v>3.629</v>
       </c>
-      <c r="Q58" s="152">
-        <f t="shared" si="60"/>
+      <c r="Q58" s="10">
+        <f t="shared" si="66"/>
         <v>4.2460000000000004</v>
       </c>
-      <c r="R58" s="152">
+      <c r="R58" s="10">
         <v>4.9000000000000004</v>
       </c>
       <c r="S58" s="15">
         <v>4.57</v>
       </c>
-      <c r="T58" s="152"/>
-      <c r="U58" s="152"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -22395,7 +22383,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>71.623999999999995</v>
       </c>
       <c r="N59" s="10"/>
@@ -22403,18 +22391,18 @@
       <c r="P59" s="10">
         <v>94.472999999999999</v>
       </c>
-      <c r="Q59" s="152">
-        <f t="shared" si="60"/>
+      <c r="Q59" s="10">
+        <f t="shared" si="66"/>
         <v>118.992</v>
       </c>
-      <c r="R59" s="152">
+      <c r="R59" s="10">
         <v>111.782</v>
       </c>
       <c r="S59" s="15">
         <v>99.545000000000002</v>
       </c>
-      <c r="T59" s="152"/>
-      <c r="U59" s="152"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -22431,7 +22419,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>9.048</v>
       </c>
       <c r="N60" s="10"/>
@@ -22439,18 +22427,18 @@
       <c r="P60" s="10">
         <v>2.6440000000000001</v>
       </c>
-      <c r="Q60" s="152">
-        <f t="shared" si="60"/>
+      <c r="Q60" s="10">
+        <f t="shared" si="66"/>
         <v>8.9969999999999999</v>
       </c>
-      <c r="R60" s="152">
+      <c r="R60" s="10">
         <v>12.276</v>
       </c>
       <c r="S60" s="15">
         <v>13.497999999999999</v>
       </c>
-      <c r="T60" s="152"/>
-      <c r="U60" s="152"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
     </row>
     <row r="61" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -22469,51 +22457,51 @@
         <v>472.14000000000004</v>
       </c>
       <c r="J61" s="11">
-        <f t="shared" ref="J61:Q61" si="61">SUM(J54:J60)</f>
+        <f t="shared" ref="J61:Q61" si="67">SUM(J54:J60)</f>
         <v>0</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>230.179</v>
       </c>
       <c r="N61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>399.45400000000006</v>
       </c>
-      <c r="Q61" s="153">
-        <f t="shared" si="61"/>
+      <c r="Q61" s="11">
+        <f t="shared" si="67"/>
         <v>472.14000000000004</v>
       </c>
-      <c r="R61" s="153">
-        <f t="shared" ref="R61" si="62">SUM(R54:R60)</f>
+      <c r="R61" s="11">
+        <f t="shared" ref="R61" si="68">SUM(R54:R60)</f>
         <v>590.49099999999999</v>
       </c>
       <c r="S61" s="14">
-        <f t="shared" ref="S61" si="63">SUM(S54:S60)</f>
+        <f t="shared" ref="S61" si="69">SUM(S54:S60)</f>
         <v>753.18799999999999</v>
       </c>
-      <c r="T61" s="153">
-        <f t="shared" ref="T61" si="64">SUM(T54:T60)</f>
+      <c r="T61" s="11">
+        <f t="shared" ref="T61" si="70">SUM(T54:T60)</f>
         <v>0</v>
       </c>
-      <c r="U61" s="153">
-        <f t="shared" ref="U61" si="65">SUM(U54:U60)</f>
+      <c r="U61" s="11">
+        <f t="shared" ref="U61" si="71">SUM(U54:U60)</f>
         <v>0</v>
       </c>
     </row>
@@ -22532,7 +22520,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>2736.3150000000001</v>
       </c>
       <c r="N62" s="10"/>
@@ -22540,18 +22528,18 @@
       <c r="P62" s="10">
         <v>2719.4630000000002</v>
       </c>
-      <c r="Q62" s="152">
-        <f t="shared" ref="Q62:Q66" si="66">E62</f>
+      <c r="Q62" s="10">
+        <f t="shared" ref="Q62:Q66" si="72">E62</f>
         <v>2713.9479999999999</v>
       </c>
-      <c r="R62" s="152">
+      <c r="R62" s="10">
         <v>2708.3609999999999</v>
       </c>
       <c r="S62" s="15">
         <v>2702.82</v>
       </c>
-      <c r="T62" s="152"/>
-      <c r="U62" s="152"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -22568,7 +22556,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N63" s="10"/>
@@ -22576,18 +22564,18 @@
       <c r="P63" s="10">
         <v>233.029</v>
       </c>
-      <c r="Q63" s="152">
-        <f t="shared" si="66"/>
+      <c r="Q63" s="10">
+        <f t="shared" si="72"/>
         <v>245.28800000000001</v>
       </c>
-      <c r="R63" s="152">
+      <c r="R63" s="10">
         <v>249.16800000000001</v>
       </c>
       <c r="S63" s="15">
         <v>225.578</v>
       </c>
-      <c r="T63" s="152"/>
-      <c r="U63" s="152"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -22604,7 +22592,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>22.594000000000001</v>
       </c>
       <c r="N64" s="10"/>
@@ -22612,18 +22600,18 @@
       <c r="P64" s="10">
         <v>33.085000000000001</v>
       </c>
-      <c r="Q64" s="152">
-        <f t="shared" si="66"/>
+      <c r="Q64" s="10">
+        <f t="shared" si="72"/>
         <v>32.911000000000001</v>
       </c>
-      <c r="R64" s="152">
+      <c r="R64" s="10">
         <v>33.045999999999999</v>
       </c>
       <c r="S64" s="15">
         <v>31.268999999999998</v>
       </c>
-      <c r="T64" s="152"/>
-      <c r="U64" s="152"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -22640,7 +22628,7 @@
       <c r="K65" s="10"/>
       <c r="L65" s="10"/>
       <c r="M65" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N65" s="10"/>
@@ -22648,18 +22636,18 @@
       <c r="P65" s="10">
         <v>376.83699999999999</v>
       </c>
-      <c r="Q65" s="152">
-        <f t="shared" si="66"/>
+      <c r="Q65" s="10">
+        <f t="shared" si="72"/>
         <v>372.86</v>
       </c>
-      <c r="R65" s="152">
+      <c r="R65" s="10">
         <v>372.95299999999997</v>
       </c>
       <c r="S65" s="15">
         <v>372.95299999999997</v>
       </c>
-      <c r="T65" s="152"/>
-      <c r="U65" s="152"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -22676,7 +22664,7 @@
       <c r="K66" s="10"/>
       <c r="L66" s="10"/>
       <c r="M66" s="10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>12.818</v>
       </c>
       <c r="N66" s="10"/>
@@ -22684,18 +22672,18 @@
       <c r="P66" s="10">
         <v>3.0350000000000001</v>
       </c>
-      <c r="Q66" s="152">
-        <f t="shared" si="66"/>
+      <c r="Q66" s="10">
+        <f t="shared" si="72"/>
         <v>3.0459999999999998</v>
       </c>
-      <c r="R66" s="152">
+      <c r="R66" s="10">
         <v>137.86500000000001</v>
       </c>
       <c r="S66" s="15">
         <v>5.86</v>
       </c>
-      <c r="T66" s="152"/>
-      <c r="U66" s="152"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
@@ -22714,51 +22702,51 @@
         <v>3840.1929999999998</v>
       </c>
       <c r="J67" s="11">
-        <f t="shared" ref="J67:Q67" si="67">SUM(J61:J66)</f>
+        <f t="shared" ref="J67:Q67" si="73">SUM(J61:J66)</f>
         <v>0</v>
       </c>
       <c r="K67" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="L67" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="M67" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>3001.9060000000004</v>
       </c>
       <c r="N67" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="O67" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="P67" s="11">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>3764.9030000000002</v>
       </c>
-      <c r="Q67" s="153">
-        <f t="shared" si="67"/>
+      <c r="Q67" s="11">
+        <f t="shared" si="73"/>
         <v>3840.1929999999998</v>
       </c>
-      <c r="R67" s="153">
-        <f t="shared" ref="R67" si="68">SUM(R61:R66)</f>
+      <c r="R67" s="11">
+        <f t="shared" ref="R67" si="74">SUM(R61:R66)</f>
         <v>4091.884</v>
       </c>
       <c r="S67" s="14">
-        <f t="shared" ref="S67" si="69">SUM(S61:S66)</f>
+        <f t="shared" ref="S67" si="75">SUM(S61:S66)</f>
         <v>4091.6680000000001</v>
       </c>
-      <c r="T67" s="153">
-        <f t="shared" ref="T67" si="70">SUM(T61:T66)</f>
+      <c r="T67" s="11">
+        <f t="shared" ref="T67" si="76">SUM(T61:T66)</f>
         <v>0</v>
       </c>
-      <c r="U67" s="153">
-        <f t="shared" ref="U67" si="71">SUM(U61:U66)</f>
+      <c r="U67" s="11">
+        <f t="shared" ref="U67" si="77">SUM(U61:U66)</f>
         <v>0</v>
       </c>
     </row>
@@ -22776,39 +22764,39 @@
         <v>8850.5460000000003</v>
       </c>
       <c r="M68" s="10">
-        <f t="shared" ref="M68:O68" si="72">M53-M67</f>
+        <f t="shared" ref="M68:O68" si="78">M53-M67</f>
         <v>578.82400000000007</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O68" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P68" s="10">
         <f>P53-P67</f>
         <v>8971.5499999999993</v>
       </c>
-      <c r="Q68" s="152">
+      <c r="Q68" s="10">
         <f>Q53-Q67</f>
         <v>8850.5460000000003</v>
       </c>
-      <c r="R68" s="152">
-        <f t="shared" ref="R68:U68" si="73">R53-R67</f>
+      <c r="R68" s="10">
+        <f t="shared" ref="R68:U68" si="79">R53-R67</f>
         <v>8630.3820000000014</v>
       </c>
       <c r="S68" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>8628.1440000000002</v>
       </c>
-      <c r="T68" s="152">
-        <f t="shared" si="73"/>
+      <c r="T68" s="10">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="U68" s="152">
-        <f t="shared" si="73"/>
+      <c r="U68" s="10">
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
     </row>
@@ -22825,17 +22813,14 @@
         <f>-E19/(E62+E63+E64+E56+E57+E58)</f>
         <v>7.8972676620761531E-2</v>
       </c>
-      <c r="Q70" s="158"/>
       <c r="S70" s="16"/>
     </row>
     <row r="88" spans="5:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E88" s="41"/>
-      <c r="Q88" s="159"/>
       <c r="S88" s="41"/>
     </row>
     <row r="89" spans="5:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E89" s="16"/>
-      <c r="Q89" s="158"/>
       <c r="S89" s="16"/>
     </row>
   </sheetData>
@@ -36937,14 +36922,14 @@
       <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="143" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="145"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -37447,10 +37432,10 @@
         <f t="shared" si="0"/>
         <v>3.4754009880974657E-2</v>
       </c>
-      <c r="H17" s="144" t="s">
+      <c r="H17" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="145"/>
+      <c r="I17" s="147"/>
       <c r="M17" s="84"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -37464,8 +37449,8 @@
         <f t="shared" si="0"/>
         <v>3.7504909527698693E-2</v>
       </c>
-      <c r="H18" s="146"/>
-      <c r="I18" s="147"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
       <c r="M18" s="84"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -38038,14 +38023,14 @@
         <f t="shared" si="0"/>
         <v>7.5984524022693734E-2</v>
       </c>
-      <c r="H43" s="148" t="s">
+      <c r="H43" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="150"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="152"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
